--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Benson.Spring.011620.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Benson.Spring.011620.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1619,12 +1619,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1999,12 +1999,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2189,12 +2189,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2683,12 +2683,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2797,12 +2797,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2835,12 +2835,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3105,12 +3105,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3219,12 +3219,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3641,12 +3641,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3983,12 +3983,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4059,12 +4059,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4367,12 +4367,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5253,12 +5253,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5443,12 +5443,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5519,12 +5519,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5557,12 +5557,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5595,12 +5595,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5785,12 +5785,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6363,12 +6363,12 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6401,12 +6401,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6781,12 +6781,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6895,12 +6895,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6971,12 +6971,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7389,12 +7389,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7655,12 +7655,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7883,12 +7883,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8035,12 +8035,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8343,12 +8343,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8381,12 +8381,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8761,12 +8761,12 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8841,12 +8841,12 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8993,12 +8993,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9487,12 +9487,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9677,12 +9677,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9753,12 +9753,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10179,12 +10179,12 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10217,12 +10217,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10369,12 +10369,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11871,12 +11871,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12103,12 +12103,12 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12369,12 +12369,12 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12521,12 +12521,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12597,12 +12597,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12711,12 +12711,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13205,12 +13205,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13357,12 +13357,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14277,12 +14277,12 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14353,12 +14353,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15347,12 +15347,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15879,12 +15879,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16073,12 +16073,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16267,12 +16267,12 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16305,12 +16305,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16651,12 +16651,12 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16689,12 +16689,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16917,12 +16917,12 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17449,12 +17449,12 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
